--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Not_Backed_Up_Files\Projects\GrowthPulse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC42E34-5D4D-444D-B363-D64CC9EF7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C975C66E-3000-48C1-B8E2-1C1168FCAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12B638B2-6DD0-429F-BEE9-E97DF8885AC5}"/>
   </bookViews>
@@ -34,36 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>units_sold</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>tax_rate</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>design_type</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Product A</t>
-  </si>
-  <si>
-    <t>Product B</t>
-  </si>
-  <si>
-    <t>O</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
   </si>
 </sst>
 </file>
@@ -416,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE71447F-4E7E-41E4-9485-AE81EB75E1A8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,64 +415,50 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44927</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>10.5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44928</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
